--- a/biology/Botanique/Goldener_Sommer/Goldener_Sommer.xlsx
+++ b/biology/Botanique/Goldener_Sommer/Goldener_Sommer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Goldener Sommer'[1] est un cultivar de rosier floribunda obtenu en 1983 par le rosiériste allemand Noack[2],[3].
+'Goldener Sommer' est un cultivar de rosier floribunda obtenu en 1983 par le rosiériste allemand Noack,.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier présente un buisson compact et érigé, de 70 cm[4] à 80 cm de hauteur, avec de grosses fleurs jaune d'or, en forme de coupe (50-70 pétales) très pleines, groupées en bouquets. Ce rosier est vigoureux, florifère et bien remontant.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier présente un buisson compact et érigé, de 70 cm à 80 cm de hauteur, avec de grosses fleurs jaune d'or, en forme de coupe (50-70 pétales) très pleines, groupées en bouquets. Ce rosier est vigoureux, florifère et bien remontant.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rose ADR (Allemagne), 1985</t>
         </is>
